--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed1/result_data_RandomForest.xlsx
@@ -480,15 +480,15 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.051199999999989</v>
+        <v>-8.757999999999996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.39900000000001</v>
+        <v>-22.34640000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>5.091600000000001</v>
+        <v>5.4985</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.90720000000001</v>
+        <v>-22.75630000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.22639999999998</v>
+        <v>-19.82699999999998</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.6171</v>
+        <v>-12.95160000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.78269999999999</v>
+        <v>-12.36279999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.221199999999997</v>
+        <v>6.350300000000001</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.59519999999998</v>
+        <v>-13.71929999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.716199999999997</v>
+        <v>4.800099999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,10 +617,10 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.0403</v>
+        <v>-13.4166</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.702299999999997</v>
+        <v>-8.787699999999996</v>
       </c>
     </row>
     <row r="14">
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.99500000000002</v>
+        <v>-21.87520000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.1131</v>
+        <v>-12.5765</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.141299999999998</v>
+        <v>5.468599999999999</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.223199999999997</v>
+        <v>6.441099999999993</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>9.387699999999997</v>
+        <v>9.269199999999998</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,16 +709,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.23110000000002</v>
+        <v>-22.10660000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.339699999999998</v>
+        <v>5.721999999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.977200000000002</v>
+        <v>-7.941400000000008</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.471699999999998</v>
+        <v>-7.586399999999994</v>
       </c>
     </row>
     <row r="26">
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.105800000000005</v>
+        <v>4.358300000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9192</v>
+        <v>-21.90619999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.26569999999997</v>
+        <v>-21.24109999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.53509999999999</v>
+        <v>-11.9635</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.866999999999998</v>
+        <v>4.057399999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.26770000000002</v>
+        <v>-21.29420000000002</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.342500000000004</v>
+        <v>-7.493300000000001</v>
       </c>
     </row>
     <row r="35">
@@ -978,24 +978,24 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.268000000000002</v>
+        <v>9.249100000000004</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.973899999999995</v>
+        <v>-8.102899999999993</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.92679999999999</v>
+        <v>-21.77019999999998</v>
       </c>
       <c r="B40" t="n">
-        <v>6.250800000000001</v>
+        <v>6.031599999999998</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.79370000000001</v>
+        <v>-12.5336</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>9.536399999999992</v>
+        <v>9.708199999999984</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.610099999999992</v>
+        <v>9.59119999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.309300000000003</v>
+        <v>6.329400000000003</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.32880000000001</v>
+        <v>-13.6155</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.83360000000001</v>
+        <v>-21.79</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.113500000000002</v>
+        <v>5.282999999999999</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.344900000000003</v>
+        <v>5.501300000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.0951</v>
+        <v>-22.0711</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1152,12 +1152,12 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.426300000000003</v>
+        <v>-8.594900000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.29300000000001</v>
+        <v>-22.13049999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.05090000000001</v>
+        <v>-21.85600000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2749</v>
+        <v>-22.1855</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.145099999999987</v>
+        <v>-8.330499999999995</v>
       </c>
     </row>
     <row r="60">
@@ -1292,12 +1292,12 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.175599999999998</v>
+        <v>-8.225799999999994</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.2302</v>
+        <v>-22.13600000000002</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.759599999999998</v>
+        <v>4.816699999999998</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,13 +1328,13 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.314999999999999</v>
+        <v>5.394200000000003</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.001799999999995</v>
+        <v>-6.981799999999996</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4167</v>
+        <v>-21.39690000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.17449999999999</v>
+        <v>-20.2603</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.75079999999998</v>
+        <v>-21.68549999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.160399999999997</v>
+        <v>5.7893</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.025900000000005</v>
+        <v>-8.247000000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.062600000000006</v>
+        <v>5.117400000000005</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.547099999999999</v>
+        <v>-8.608700000000004</v>
       </c>
     </row>
     <row r="84">
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.621299999999999</v>
+        <v>5.3767</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.34059999999999</v>
+        <v>-14.41570000000001</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.73850000000001</v>
+        <v>-12.60360000000001</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.61950000000001</v>
+        <v>-21.60950000000002</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.330600000000007</v>
+        <v>-6.134600000000002</v>
       </c>
     </row>
     <row r="93">
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.701799999999994</v>
+        <v>4.762999999999993</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.012199999999999</v>
+        <v>-7.1249</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.1416</v>
+        <v>-22.121</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.203999999999997</v>
+        <v>-8.204199999999993</v>
       </c>
     </row>
     <row r="101">
